--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1204_INSA.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1204_INSA.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwinarsih\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Source\JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C24ED2-C19D-476B-8A37-64FBF3BF6180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53DE0DDB-15AC-4731-AEBE-BA985DD21DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{8E3DDD81-B650-48B4-8C19-3ECF19247415}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="R5641114_GG0001_1915092_PDF (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="R5641114_GG0001_1956602_PDF (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
   <si>
     <t>þÿ</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>HEAT TRANSFER LABEL</t>
+  </si>
+  <si>
+    <t>KNITTED FABRIC</t>
   </si>
   <si>
     <t>SCANNER</t>
@@ -280,19 +283,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
@@ -305,99 +310,114 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -805,7 +825,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1093,44 +1113,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFF5777-7DD8-444C-9C89-59287CDFAB88}">
-  <dimension ref="A1:T68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>45672</v>
+        <v>45721</v>
       </c>
       <c r="T1" s="2">
-        <v>0.7249768518518519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.59290509259259261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
         <v>3</v>
       </c>
@@ -1138,12 +1156,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>1204</v>
       </c>
@@ -1151,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1210,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>239332</v>
       </c>
@@ -1230,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="R11">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="T11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>253512</v>
       </c>
@@ -1253,13 +1271,13 @@
         <v>22</v>
       </c>
       <c r="R12">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>258526</v>
       </c>
@@ -1279,13 +1297,13 @@
         <v>25</v>
       </c>
       <c r="R13">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>258712</v>
       </c>
@@ -1296,19 +1314,19 @@
         <v>22</v>
       </c>
       <c r="J14" s="1">
-        <v>45650</v>
+        <v>45672</v>
       </c>
       <c r="P14" t="s">
         <v>22</v>
       </c>
       <c r="R14">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>260274</v>
       </c>
@@ -1328,13 +1346,13 @@
         <v>25</v>
       </c>
       <c r="R15">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="T15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>260277</v>
       </c>
@@ -1354,13 +1372,13 @@
         <v>25</v>
       </c>
       <c r="R16">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="T16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>260278</v>
       </c>
@@ -1380,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="R17">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>260279</v>
       </c>
@@ -1406,13 +1424,13 @@
         <v>25</v>
       </c>
       <c r="R18">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="T18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>260280</v>
       </c>
@@ -1432,13 +1450,13 @@
         <v>25</v>
       </c>
       <c r="R19">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>261176</v>
       </c>
@@ -1458,13 +1476,13 @@
         <v>22</v>
       </c>
       <c r="R20">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>263483</v>
       </c>
@@ -1484,13 +1502,13 @@
         <v>25</v>
       </c>
       <c r="R21">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>263484</v>
       </c>
@@ -1510,13 +1528,13 @@
         <v>36</v>
       </c>
       <c r="R22">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>269701</v>
       </c>
@@ -1533,13 +1551,13 @@
         <v>22</v>
       </c>
       <c r="R23">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="T23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>269703</v>
       </c>
@@ -1556,13 +1574,13 @@
         <v>22</v>
       </c>
       <c r="R24">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="T24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>274592</v>
       </c>
@@ -1582,13 +1600,13 @@
         <v>25</v>
       </c>
       <c r="R25">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>275499</v>
       </c>
@@ -1608,15 +1626,15 @@
         <v>22</v>
       </c>
       <c r="R26">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="T26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>278123</v>
+        <v>276881</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -1625,24 +1643,24 @@
         <v>22</v>
       </c>
       <c r="J27" s="1">
-        <v>45107</v>
+        <v>45694</v>
       </c>
       <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27">
+        <v>23</v>
+      </c>
+      <c r="T27">
         <v>1</v>
       </c>
-      <c r="P27" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27">
-        <v>551</v>
-      </c>
-      <c r="T27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>282448</v>
+        <v>278123</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -1651,21 +1669,24 @@
         <v>22</v>
       </c>
       <c r="J28" s="1">
-        <v>45419</v>
+        <v>45107</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
       </c>
       <c r="P28" t="s">
         <v>22</v>
       </c>
       <c r="R28">
-        <v>239</v>
+        <v>610</v>
       </c>
       <c r="T28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>282868</v>
+        <v>282448</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -1673,13 +1694,22 @@
       <c r="F29" t="s">
         <v>22</v>
       </c>
+      <c r="J29" s="1">
+        <v>45419</v>
+      </c>
       <c r="P29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>298</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>283438</v>
+        <v>282868</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -1687,25 +1717,13 @@
       <c r="F30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="1">
-        <v>45100</v>
-      </c>
-      <c r="K30">
-        <v>68</v>
-      </c>
       <c r="P30" t="s">
         <v>22</v>
       </c>
-      <c r="R30">
-        <v>558</v>
-      </c>
-      <c r="T30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>283439</v>
+        <v>283438</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -1723,15 +1741,15 @@
         <v>22</v>
       </c>
       <c r="R31">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>283440</v>
+        <v>283439</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
@@ -1743,21 +1761,21 @@
         <v>45100</v>
       </c>
       <c r="K32">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="P32" t="s">
         <v>22</v>
       </c>
       <c r="R32">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>284833</v>
+        <v>283440</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -1769,47 +1787,47 @@
         <v>45100</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="P33" t="s">
         <v>22</v>
       </c>
       <c r="R33">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>284834</v>
+        <v>284833</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1">
         <v>45100</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R34">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="T34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>285836</v>
+        <v>284834</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -1818,24 +1836,24 @@
         <v>25</v>
       </c>
       <c r="J35" s="1">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="P35" t="s">
         <v>25</v>
       </c>
       <c r="R35">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="T35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>286758</v>
+        <v>285836</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -1847,21 +1865,21 @@
         <v>45099</v>
       </c>
       <c r="K36">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="P36" t="s">
         <v>25</v>
       </c>
       <c r="R36">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="T36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>287526</v>
+        <v>286758</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -1873,99 +1891,99 @@
         <v>45099</v>
       </c>
       <c r="K37">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P37" t="s">
         <v>25</v>
       </c>
       <c r="R37">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="T37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>289039</v>
+        <v>287526</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J38" s="1">
-        <v>45518</v>
+        <v>45099</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
       </c>
       <c r="P38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R38">
-        <v>140</v>
+        <v>618</v>
       </c>
       <c r="T38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>290049</v>
+        <v>289039</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="1">
+        <v>45518</v>
+      </c>
+      <c r="P39" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39">
+        <v>199</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>290049</v>
+      </c>
+      <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="1">
+      <c r="F40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" s="1">
         <v>44979</v>
       </c>
-      <c r="K39">
+      <c r="K40">
         <v>6.56</v>
       </c>
-      <c r="M39">
+      <c r="M40">
         <v>88.2</v>
       </c>
-      <c r="P39" t="s">
-        <v>53</v>
-      </c>
-      <c r="R39">
-        <v>679</v>
-      </c>
-      <c r="T39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="P40" t="s">
+        <v>54</v>
+      </c>
+      <c r="R40">
+        <v>738</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>290268</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" s="1">
-        <v>45099</v>
-      </c>
-      <c r="K40">
-        <v>14</v>
-      </c>
-      <c r="P40" t="s">
-        <v>25</v>
-      </c>
-      <c r="R40">
-        <v>559</v>
-      </c>
-      <c r="T40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>290411</v>
       </c>
       <c r="C41" t="s">
         <v>55</v>
@@ -1974,122 +1992,122 @@
         <v>25</v>
       </c>
       <c r="J41" s="1">
-        <v>45100</v>
+        <v>45099</v>
       </c>
       <c r="K41">
-        <v>640</v>
+        <v>14</v>
       </c>
       <c r="P41" t="s">
         <v>25</v>
       </c>
       <c r="R41">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="T41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>291149</v>
+        <v>290411</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
       </c>
       <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="1">
+        <v>45100</v>
+      </c>
+      <c r="K42">
+        <v>640</v>
+      </c>
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42">
+        <v>617</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>291149</v>
+      </c>
+      <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="1">
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J43" s="1">
         <v>45498</v>
       </c>
-      <c r="P42" t="s">
-        <v>58</v>
-      </c>
-      <c r="R42">
-        <v>160</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="P43" t="s">
+        <v>59</v>
+      </c>
+      <c r="R43">
+        <v>219</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>291163</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="1">
-        <v>45100</v>
-      </c>
-      <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="P43" t="s">
-        <v>25</v>
-      </c>
-      <c r="R43">
-        <v>558</v>
-      </c>
-      <c r="T43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>291969</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J44" s="1">
-        <v>45127</v>
+        <v>45100</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
       </c>
       <c r="P44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R44">
-        <v>531</v>
+        <v>617</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>291978</v>
+        <v>291969</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J45" s="1">
-        <v>45099</v>
-      </c>
-      <c r="K45">
-        <v>13</v>
+        <v>45127</v>
       </c>
       <c r="P45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R45">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="T45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>291979</v>
+        <v>291978</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
@@ -2101,21 +2119,21 @@
         <v>45099</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P46" t="s">
         <v>25</v>
       </c>
       <c r="R46">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="T46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>291980</v>
+        <v>291979</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
@@ -2127,21 +2145,21 @@
         <v>45099</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P47" t="s">
         <v>25</v>
       </c>
       <c r="R47">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="T47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>291981</v>
+        <v>291980</v>
       </c>
       <c r="C48" t="s">
         <v>64</v>
@@ -2153,21 +2171,21 @@
         <v>45099</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P48" t="s">
         <v>25</v>
       </c>
       <c r="R48">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="T48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>291982</v>
+        <v>291981</v>
       </c>
       <c r="C49" t="s">
         <v>65</v>
@@ -2179,73 +2197,73 @@
         <v>45099</v>
       </c>
       <c r="K49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P49" t="s">
         <v>25</v>
       </c>
       <c r="R49">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="T49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>291984</v>
+        <v>291982</v>
       </c>
       <c r="C50" t="s">
         <v>66</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J50" s="1">
-        <v>45100</v>
+        <v>45099</v>
       </c>
       <c r="K50">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R50">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="T50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>291985</v>
+        <v>291984</v>
       </c>
       <c r="C51" t="s">
         <v>67</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J51" s="1">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="K51">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="P51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R51">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="T51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>291986</v>
+        <v>291985</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -2254,24 +2272,24 @@
         <v>25</v>
       </c>
       <c r="J52" s="1">
-        <v>45100</v>
+        <v>45099</v>
       </c>
       <c r="K52">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P52" t="s">
         <v>25</v>
       </c>
       <c r="R52">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="T52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>291987</v>
+        <v>291986</v>
       </c>
       <c r="C53" t="s">
         <v>69</v>
@@ -2280,24 +2298,24 @@
         <v>25</v>
       </c>
       <c r="J53" s="1">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="K53">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="P53" t="s">
         <v>25</v>
       </c>
       <c r="R53">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="T53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>291988</v>
+        <v>291987</v>
       </c>
       <c r="C54" t="s">
         <v>70</v>
@@ -2309,44 +2327,47 @@
         <v>45099</v>
       </c>
       <c r="K54">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="P54" t="s">
         <v>25</v>
       </c>
       <c r="R54">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="T54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>293441</v>
+        <v>291988</v>
       </c>
       <c r="C55" t="s">
         <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J55" s="1">
-        <v>45544</v>
+        <v>45099</v>
+      </c>
+      <c r="K55">
+        <v>50</v>
       </c>
       <c r="P55" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R55">
-        <v>114</v>
+        <v>618</v>
       </c>
       <c r="T55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>294071</v>
+        <v>293441</v>
       </c>
       <c r="C56" t="s">
         <v>72</v>
@@ -2355,21 +2376,21 @@
         <v>22</v>
       </c>
       <c r="J56" s="1">
-        <v>45518</v>
+        <v>45544</v>
       </c>
       <c r="P56" t="s">
         <v>22</v>
       </c>
       <c r="R56">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="T56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>294523</v>
+        <v>294071</v>
       </c>
       <c r="C57" t="s">
         <v>73</v>
@@ -2378,196 +2399,222 @@
         <v>22</v>
       </c>
       <c r="J57" s="1">
-        <v>45544</v>
+        <v>45518</v>
       </c>
       <c r="P57" t="s">
         <v>22</v>
       </c>
       <c r="R57">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="T57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>294806</v>
+        <v>294523</v>
       </c>
       <c r="C58" t="s">
         <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J58" s="1">
-        <v>45413</v>
+        <v>45544</v>
       </c>
       <c r="P58" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="R58">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="T58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>294832</v>
+        <v>294806</v>
       </c>
       <c r="C59" t="s">
         <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J59" s="1">
-        <v>45419</v>
+        <v>45413</v>
       </c>
       <c r="P59" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R59">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>295863</v>
+        <v>294832</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
       </c>
       <c r="J60" s="1">
-        <v>45421</v>
+        <v>45419</v>
       </c>
       <c r="P60" t="s">
         <v>22</v>
       </c>
       <c r="R60">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>295863</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="1">
+        <v>45421</v>
+      </c>
+      <c r="P61" t="s">
+        <v>22</v>
+      </c>
+      <c r="R61">
+        <v>296</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>301502</v>
       </c>
-      <c r="C61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" t="s">
-        <v>76</v>
-      </c>
-      <c r="J61" s="1">
-        <v>45650</v>
-      </c>
-      <c r="P61" t="s">
-        <v>58</v>
-      </c>
-      <c r="R61">
-        <v>8</v>
-      </c>
-      <c r="T61">
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="1">
+        <v>45713</v>
+      </c>
+      <c r="K62">
+        <v>37</v>
+      </c>
+      <c r="P62" t="s">
+        <v>59</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="T62">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>32874</v>
       </c>
-      <c r="B63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
         <v>79</v>
       </c>
-      <c r="D63">
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
         <v>79</v>
       </c>
-      <c r="D68">
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69">
         <v>6</v>
       </c>
     </row>
